--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F8" s="3">
         <v>44700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>38500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>37900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>32000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>29800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>26200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>23700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F9" s="3">
         <v>18900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>18400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>14800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>14000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>39500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F10" s="3">
         <v>25800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>20100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>21000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>17200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>15800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-13300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>11500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F12" s="3">
         <v>11000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>9500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
+      <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F17" s="3">
         <v>49000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>48500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>44600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>39900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>33300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>34500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>28700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,20 +1705,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F41" s="3">
         <v>31500</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1562,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,20 +1771,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F43" s="3">
         <v>50000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,20 +1841,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>359100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>361000</v>
+      </c>
+      <c r="F45" s="3">
         <v>74400</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
@@ -1678,20 +1876,26 @@
       <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>417500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>429600</v>
+      </c>
+      <c r="F46" s="3">
         <v>155900</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
@@ -1707,20 +1911,26 @@
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F47" s="3">
         <v>7700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
@@ -1736,20 +1946,26 @@
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
@@ -1765,20 +1981,26 @@
       <c r="K48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>81200</v>
+      </c>
+      <c r="F49" s="3">
         <v>80900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +2086,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,20 +2156,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>520400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>533800</v>
+      </c>
+      <c r="F54" s="3">
         <v>261100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,20 +2225,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
@@ -1994,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,20 +2291,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F59" s="3">
         <v>85400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2052,20 +2326,26 @@
       <c r="K59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F60" s="3">
         <v>91100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2081,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
+      <c r="F62" s="3">
+        <v>1700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,20 +2536,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>106300</v>
+      </c>
+      <c r="F66" s="3">
         <v>97200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,20 +2726,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-125600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
@@ -2413,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,20 +2866,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>426700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>427500</v>
+      </c>
+      <c r="F76" s="3">
         <v>163900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>11</v>
       </c>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,20 +3030,22 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>11</v>
       </c>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,20 +3236,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F89" s="3">
         <v>8400</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>11</v>
       </c>
@@ -2837,8 +3271,14 @@
       <c r="K89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,20 +3290,22 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>11</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,20 +3391,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>11</v>
       </c>
@@ -2966,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,20 +3581,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>268000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>11</v>
       </c>
@@ -3124,20 +3616,26 @@
       <c r="K100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>11</v>
       </c>
@@ -3153,20 +3651,26 @@
       <c r="K101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>289200</v>
+      </c>
+      <c r="F102" s="3">
         <v>7900</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>11</v>
       </c>
@@ -3180,6 +3684,12 @@
         <v>11</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>NCNO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E8" s="3">
         <v>54200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E9" s="3">
         <v>22500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E10" s="3">
         <v>31700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-13300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E12" s="3">
         <v>15100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,8 +982,8 @@
       <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
+      <c r="G15" s="3">
+        <v>400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>11</v>
@@ -968,11 +991,11 @@
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E17" s="3">
         <v>63000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,101 +1110,108 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,23 +1793,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E41" s="3">
         <v>29100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,23 +1867,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E43" s="3">
         <v>29400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,23 +1943,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E45" s="3">
         <v>359100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>361000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>74400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>11</v>
       </c>
@@ -1882,23 +1981,26 @@
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>442200</v>
+      </c>
+      <c r="E46" s="3">
         <v>417500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>429600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>155900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>11</v>
       </c>
@@ -1917,23 +2019,26 @@
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E47" s="3">
         <v>7600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>11</v>
       </c>
@@ -1952,23 +2057,26 @@
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>11</v>
       </c>
@@ -1987,23 +2095,26 @@
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E49" s="3">
         <v>80100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>81200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,23 +2209,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,23 +2285,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>563400</v>
+      </c>
+      <c r="E54" s="3">
         <v>520400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>533800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>261100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2357,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2262,31 +2393,34 @@
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,23 +2431,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E59" s="3">
         <v>79600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>85400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2332,23 +2469,26 @@
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E60" s="3">
         <v>86100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2367,13 +2507,16 @@
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2402,22 +2545,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1700</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
+      <c r="G62" s="3">
+        <v>1700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>11</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,23 +2697,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E66" s="3">
         <v>93700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>97200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,23 +2903,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-149100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-125600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,23 +3055,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>425200</v>
+      </c>
+      <c r="E76" s="3">
         <v>426700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>427500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>163900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>11</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,23 +3230,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,23 +3456,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>11</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,23 +3512,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,23 +3624,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>11</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,23 +3830,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>268000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>11</v>
       </c>
@@ -3622,23 +3868,26 @@
       <c r="M100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>11</v>
       </c>
@@ -3657,23 +3906,26 @@
       <c r="M101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>289200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7900</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>11</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>11</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>NCNO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E8" s="3">
         <v>56600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E9" s="3">
         <v>24200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E10" s="3">
         <v>32400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-13300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E12" s="3">
         <v>16900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,31 +946,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,13 +987,16 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -985,8 +1007,8 @@
       <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
+      <c r="H15" s="3">
+        <v>400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -994,11 +1016,11 @@
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
+      <c r="K15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E17" s="3">
         <v>70400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,93 +1143,100 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1213,8 +1252,8 @@
       <c r="J22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1225,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E41" s="3">
         <v>38900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,26 +1959,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E43" s="3">
         <v>60400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,26 +2041,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>356800</v>
+      </c>
+      <c r="E45" s="3">
         <v>343000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>359100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>361000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>74400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>11</v>
       </c>
@@ -1984,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>457200</v>
+      </c>
+      <c r="E46" s="3">
         <v>442200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>417500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>429600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>155900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2022,26 +2123,29 @@
       <c r="N46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E47" s="3">
         <v>10200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2060,26 +2164,29 @@
       <c r="N47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E48" s="3">
         <v>29900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2098,26 +2205,29 @@
       <c r="N48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E49" s="3">
         <v>80300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>81200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,26 +2328,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>593800</v>
+      </c>
+      <c r="E54" s="3">
         <v>563400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>520400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>533800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>261100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2396,16 +2526,19 @@
       <c r="N57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
+      <c r="E58" s="3">
+        <v>300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
@@ -2422,8 +2555,8 @@
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2434,26 +2567,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E59" s="3">
         <v>109400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>79600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2472,26 +2608,29 @@
       <c r="N59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E60" s="3">
         <v>115700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>91100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2510,17 +2649,20 @@
       <c r="N60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E61" s="3">
         <v>15900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2548,25 +2690,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1700</v>
       </c>
       <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
+      <c r="H62" s="3">
+        <v>1700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E66" s="3">
         <v>138200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-161100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-149100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-125600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E76" s="3">
         <v>425200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>426700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>427500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>163900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,26 +3428,27 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,26 +3672,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>11</v>
       </c>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,26 +3732,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,26 +3853,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>11</v>
       </c>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,26 +4075,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E100" s="3">
         <v>4400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>268000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>11</v>
       </c>
@@ -3871,26 +4116,29 @@
       <c r="N100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>11</v>
       </c>
@@ -3909,26 +4157,29 @@
       <c r="N101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>289200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>11</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>11</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E8" s="3">
         <v>62400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E9" s="3">
         <v>26300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E10" s="3">
         <v>36100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-13300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E12" s="3">
         <v>17000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,17 +966,20 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
@@ -975,8 +995,8 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1022,7 @@
         <v>1300</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1010,8 +1033,8 @@
       <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
+      <c r="I15" s="3">
+        <v>400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>11</v>
@@ -1019,11 +1042,11 @@
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>11</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E17" s="3">
         <v>77800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,11 +1275,11 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1255,8 +1295,8 @@
       <c r="K22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E41" s="3">
         <v>39100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E43" s="3">
         <v>61300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,29 +2140,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>364200</v>
+      </c>
+      <c r="E45" s="3">
         <v>356800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>343000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>359100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>361000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>74400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>465400</v>
+      </c>
+      <c r="E46" s="3">
         <v>457200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>442200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>417500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>429600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>155900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2126,29 +2228,32 @@
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E47" s="3">
         <v>10300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E48" s="3">
         <v>45700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2208,29 +2316,32 @@
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E49" s="3">
         <v>79700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>81200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>608100</v>
+      </c>
+      <c r="E54" s="3">
         <v>593800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>563400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>520400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>533800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>261100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2529,19 +2660,22 @@
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
+      <c r="F58" s="3">
+        <v>300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
@@ -2558,8 +2692,8 @@
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E59" s="3">
         <v>129200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>79600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>85400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E60" s="3">
         <v>138800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>115700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>86100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>91100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2652,20 +2792,23 @@
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2693,28 +2836,31 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E62" s="3">
         <v>11000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1700</v>
       </c>
       <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
+      <c r="I62" s="3">
+        <v>1700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>11</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E66" s="3">
         <v>168700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>138200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>97200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-190100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-161100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-125600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>419900</v>
+      </c>
+      <c r="E76" s="3">
         <v>425000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>425200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>426700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>427500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>163900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,29 +3627,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,29 +3889,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>11</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,29 +3953,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,29 +4083,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>11</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,29 +4321,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>7800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>268000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4119,29 +4365,32 @@
       <c r="O100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4160,29 +4409,32 @@
       <c r="O101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>289200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7900</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>11</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E8" s="3">
         <v>66500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>62400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>56600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>54200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E9" s="3">
         <v>26600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E10" s="3">
         <v>39900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-13300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E12" s="3">
         <v>18200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,20 +986,23 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1018,8 @@
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1048,7 @@
         <v>1300</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1036,8 +1059,8 @@
       <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
+      <c r="J15" s="3">
+        <v>400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
@@ -1045,11 +1068,11 @@
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>11</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E17" s="3">
         <v>79700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,111 +1211,118 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1338,8 @@
       <c r="L22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2053,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E41" s="3">
         <v>43900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,32 +2145,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E43" s="3">
         <v>57200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,32 +2239,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E45" s="3">
         <v>364200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>356800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>343000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>359100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>361000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2187,32 +2286,35 @@
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>432300</v>
+      </c>
+      <c r="E46" s="3">
         <v>465400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>457200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>442200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>417500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>429600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>155900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2231,32 +2333,35 @@
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E47" s="3">
         <v>11400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2275,32 +2380,35 @@
       <c r="P47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E48" s="3">
         <v>52100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2319,32 +2427,35 @@
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E49" s="3">
         <v>78200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,23 +2580,23 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>586500</v>
+      </c>
+      <c r="E54" s="3">
         <v>608100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>593800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>563400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>520400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>533800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>261100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2663,22 +2794,25 @@
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
+      <c r="G58" s="3">
+        <v>300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
@@ -2695,8 +2829,8 @@
       <c r="L58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2707,32 +2841,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E59" s="3">
         <v>147800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>79600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>85400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2751,32 +2888,35 @@
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E60" s="3">
         <v>157000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>138800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>115700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>86100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>91100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2795,23 +2935,26 @@
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E61" s="3">
         <v>16000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2839,31 +2982,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E62" s="3">
         <v>12800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1700</v>
       </c>
       <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
+      <c r="J62" s="3">
+        <v>1700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>11</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3170,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E66" s="3">
         <v>188200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>138200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>97200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-203300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-190100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-176200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-161100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-149100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-125600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3612,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>415800</v>
+      </c>
+      <c r="E76" s="3">
         <v>419900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>425000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>425200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>426700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>427500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>163900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,23 +3836,23 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,32 +4106,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E89" s="3">
         <v>13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>11</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,32 +4174,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4313,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4567,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>268000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4368,32 +4614,35 @@
       <c r="P100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4412,32 +4661,35 @@
       <c r="P101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>289200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>11</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E8" s="3">
         <v>70000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>62400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>54200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E9" s="3">
         <v>27300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E10" s="3">
         <v>42700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-13300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E12" s="3">
         <v>19500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,23 +1006,26 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1021,8 +1041,8 @@
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,13 +1056,16 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="E15" s="3">
         <v>1300</v>
@@ -1051,7 +1074,7 @@
         <v>1300</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
@@ -1062,8 +1085,8 @@
       <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
+      <c r="K15" s="3">
+        <v>400</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
@@ -1071,11 +1094,11 @@
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>11</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E17" s="3">
         <v>82800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,120 +1245,127 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1381,8 @@
       <c r="M22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2140,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E41" s="3">
         <v>51600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,35 +2238,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E43" s="3">
         <v>39300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>60400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,35 +2338,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E45" s="3">
         <v>341400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>364200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>356800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>343000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>359100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>361000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>74400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2289,35 +2388,38 @@
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E46" s="3">
         <v>432300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>465400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>457200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>442200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>417500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>429600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>155900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2336,35 +2438,38 @@
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E47" s="3">
         <v>11200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2383,35 +2488,38 @@
       <c r="Q47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E48" s="3">
         <v>64300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2430,35 +2538,38 @@
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1021600</v>
+      </c>
+      <c r="E49" s="3">
         <v>77700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>78200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>81200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2688,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2788,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="E54" s="3">
         <v>586500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>608100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>593800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>563400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>520400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>533800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>261100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +2880,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E57" s="3">
         <v>11000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,16 +2940,16 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
+      <c r="H58" s="3">
+        <v>300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2832,8 +2966,8 @@
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,35 +2978,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E59" s="3">
         <v>107800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>147800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>129200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>109400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>79600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>85400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2891,35 +3028,38 @@
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>174400</v>
+      </c>
+      <c r="E60" s="3">
         <v>119400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>157000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>138800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>115700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>86100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2938,26 +3078,29 @@
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E61" s="3">
         <v>33200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2985,34 +3128,37 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E62" s="3">
         <v>15900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1700</v>
       </c>
       <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>11</v>
+      <c r="K62" s="3">
+        <v>1700</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>11</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3328,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233400</v>
+      </c>
+      <c r="E66" s="3">
         <v>170800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>188200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>168700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>138200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>97200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-209600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-203300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-190100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-176200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-161100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-149100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-140100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-125600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3798,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1067600</v>
+      </c>
+      <c r="E76" s="3">
         <v>415800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>419900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>425000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>425200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>426700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>427500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>163900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,35 +4025,36 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
         <v>2000</v>
       </c>
       <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,35 +4323,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>11</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,35 +4395,36 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,35 +4543,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-274800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,35 +4813,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>268000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4617,35 +4863,38 @@
       <c r="Q100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4664,35 +4913,38 @@
       <c r="Q101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>289200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>11</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E8" s="3">
         <v>75000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>62400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E9" s="3">
         <v>31300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E10" s="3">
         <v>43700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E12" s="3">
         <v>22800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,26 +1025,29 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1044,8 +1063,8 @@
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1059,16 +1078,19 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1300</v>
       </c>
       <c r="F15" s="3">
         <v>1300</v>
@@ -1077,7 +1099,7 @@
         <v>1300</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1088,8 +1110,8 @@
       <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
+      <c r="L15" s="3">
+        <v>400</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
@@ -1097,11 +1119,11 @@
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>11</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E17" s="3">
         <v>104900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,129 +1278,136 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1384,8 +1423,8 @@
       <c r="N22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E41" s="3">
         <v>76900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E43" s="3">
         <v>82100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>61300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,38 +2436,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E45" s="3">
         <v>24500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>341400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>364200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>356800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>343000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>359100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>361000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2391,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E46" s="3">
         <v>183500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>432300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>465400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>457200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>442200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>417500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>429600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>155900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2441,38 +2542,41 @@
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E47" s="3">
         <v>20400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2491,38 +2595,41 @@
       <c r="R47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E48" s="3">
         <v>73800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>52100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2541,38 +2648,41 @@
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1014600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1021600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>77700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>78200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>81200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2807,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1296800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1301000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>586500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>608100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>593800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>563400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>520400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>533800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>261100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E57" s="3">
         <v>11400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,16 +3076,16 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
+      <c r="I58" s="3">
+        <v>300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>11</v>
@@ -2969,8 +3102,8 @@
       <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,38 +3114,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E59" s="3">
         <v>162400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>107800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>147800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>129200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>109400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>79600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>85400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3031,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E60" s="3">
         <v>174400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>119400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>157000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>138800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>115700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>86100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3081,29 +3220,32 @@
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E61" s="3">
         <v>33500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3131,37 +3273,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E62" s="3">
         <v>22700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1700</v>
       </c>
       <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>11</v>
+      <c r="L62" s="3">
+        <v>1700</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>11</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E66" s="3">
         <v>233400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>170800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>188200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>168700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>138200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-209600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-203300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-190100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-176200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-161100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-149100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-140100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-125600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1051800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1067600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>415800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>419900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>425000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>425200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>426700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>427500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>163900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,38 +4223,39 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
       </c>
       <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,38 +4539,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>11</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,38 +4615,39 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,38 +4772,41 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-274800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,38 +5058,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>268000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4866,38 +5111,41 @@
       <c r="R100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4916,38 +5164,41 @@
       <c r="R101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-293000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>289200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>11</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E8" s="3">
         <v>94200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>66500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>62400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>54200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E9" s="3">
         <v>40300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>39500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E10" s="3">
         <v>53900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>43700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>39900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-13300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E12" s="3">
         <v>28600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,29 +1045,32 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1066,8 +1086,8 @@
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1081,19 +1101,22 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1300</v>
       </c>
       <c r="G15" s="3">
         <v>1300</v>
@@ -1102,7 +1125,7 @@
         <v>1300</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
+      <c r="M15" s="3">
+        <v>400</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>11</v>
@@ -1122,11 +1145,11 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>11</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E17" s="3">
         <v>121400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>104900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,23 +1434,23 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1426,8 +1466,8 @@
       <c r="O22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-24900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E41" s="3">
         <v>66600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E43" s="3">
         <v>80700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>61300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E45" s="3">
         <v>25900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>341400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>364200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>356800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>343000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>359100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>361000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E46" s="3">
         <v>173200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>183500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>432300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>465400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>457200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>442200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>417500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>429600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>155900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,32 +2659,32 @@
         <v>20200</v>
       </c>
       <c r="E47" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F47" s="3">
         <v>20400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E48" s="3">
         <v>80300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>52100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2651,41 +2759,44 @@
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1006800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1014600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1021600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>77700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>78200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1296400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1296800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1301000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>586500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>608100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>593800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>563400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>520400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>533800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>261100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -3079,16 +3213,16 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
+      <c r="J58" s="3">
+        <v>300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
@@ -3105,8 +3239,8 @@
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E59" s="3">
         <v>173300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>107800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>147800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>129200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>109400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>79600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>85400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E60" s="3">
         <v>182800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>174400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>119400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>157000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>138800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>115700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>86100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3223,32 +3363,35 @@
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E61" s="3">
         <v>33300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3276,40 +3419,43 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E62" s="3">
         <v>25400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1700</v>
       </c>
       <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>11</v>
+      <c r="M62" s="3">
+        <v>1700</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>11</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>255100</v>
+      </c>
+      <c r="E66" s="3">
         <v>245000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>233400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>170800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>188200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>138200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-266400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-239300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-209600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-203300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-190100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-176200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-161100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-149100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-140100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-125600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1041200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1051800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1067600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>415800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>419900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>425000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>425200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>426700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>427500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>163900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,41 +4422,42 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>2000</v>
       </c>
       <c r="H83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,41 +4756,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>11</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,41 +4836,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,41 +5002,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-274800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,41 +5304,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>268000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5114,41 +5360,44 @@
       <c r="S100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>11</v>
       </c>
@@ -5167,41 +5416,44 @@
       <c r="S101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-293000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>289200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>11</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>11</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E8" s="3">
         <v>99600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>94200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>70000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>62400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E9" s="3">
         <v>41200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>39500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E10" s="3">
         <v>58400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>53900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-13300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E12" s="3">
         <v>29200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,32 +1065,35 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1089,8 +1109,8 @@
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,22 +1124,25 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1300</v>
       </c>
       <c r="H15" s="3">
         <v>1300</v>
@@ -1128,7 +1151,7 @@
         <v>1300</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1139,8 +1162,8 @@
       <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
+      <c r="N15" s="3">
+        <v>400</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>11</v>
@@ -1148,11 +1171,11 @@
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>11</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E17" s="3">
         <v>124600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>82800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>33300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>28700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,23 +1477,23 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1509,8 @@
       <c r="P22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,55 +1592,58 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-24900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E41" s="3">
         <v>73500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,44 +2516,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E43" s="3">
         <v>76500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>80700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>61300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,44 +2634,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E45" s="3">
         <v>26700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>341400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>364200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>356800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>343000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>359100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>361000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2594,44 +2693,47 @@
       <c r="T45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E46" s="3">
         <v>176800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>173200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>183500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>432300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>465400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>457200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>442200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>417500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>429600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>155900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2650,44 +2752,47 @@
       <c r="T46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="E47" s="3">
         <v>20200</v>
       </c>
       <c r="F47" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G47" s="3">
         <v>20400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2706,44 +2811,47 @@
       <c r="T47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E48" s="3">
         <v>84900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>52100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>45700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2762,44 +2870,47 @@
       <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>999400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1006800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1014600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1021600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>77700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>78200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>79700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,44 +3047,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1291200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1296400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1296800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1301000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>586500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>608100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>593800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>563400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>520400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>533800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>261100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3272,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
         <v>9500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,7 +3341,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -3216,16 +3350,16 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>11</v>
+      <c r="K58" s="3">
+        <v>300</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>11</v>
@@ -3242,8 +3376,8 @@
       <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3254,44 +3388,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E59" s="3">
         <v>181000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>173300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>162400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>107800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>147800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>129200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>109400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>94000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>85400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3310,44 +3447,47 @@
       <c r="T59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E60" s="3">
         <v>191100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>182800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>174400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>119400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>157000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>138800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>115700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>86100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3366,35 +3506,38 @@
       <c r="T60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E61" s="3">
         <v>33100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,43 +3565,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E62" s="3">
         <v>27600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1700</v>
       </c>
       <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>11</v>
+      <c r="N62" s="3">
+        <v>1700</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>11</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3801,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E66" s="3">
         <v>255100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>245000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>233400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>170800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>188200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>138200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>106300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-288800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-266400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-239300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-209600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-203300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-190100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-176200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-161100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-149100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-140100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-125600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1031900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1041200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1051800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1067600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>415800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>419900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>425000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>425200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>426700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>427500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>163900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,44 +4621,45 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2000</v>
       </c>
       <c r="H83" s="3">
         <v>2000</v>
       </c>
       <c r="I83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,44 +4973,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>11</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,44 +5057,45 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,44 +5232,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-274800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>11</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5550,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>268000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5363,44 +5609,47 @@
       <c r="T100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>11</v>
       </c>
@@ -5419,44 +5668,47 @@
       <c r="T101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E102" s="3">
         <v>7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-293000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>289200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>11</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>11</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E8" s="3">
         <v>105300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>94200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>70000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>62400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>54200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E9" s="3">
         <v>43200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E10" s="3">
         <v>62100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>53900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-13300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E12" s="3">
         <v>28900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,35 +1085,38 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1132,8 @@
       <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1127,25 +1147,28 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1300</v>
       </c>
       <c r="I15" s="3">
         <v>1300</v>
@@ -1154,7 +1177,7 @@
         <v>1300</v>
       </c>
       <c r="K15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
@@ -1165,8 +1188,8 @@
       <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
+      <c r="O15" s="3">
+        <v>400</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>11</v>
@@ -1174,11 +1197,11 @@
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E17" s="3">
         <v>123700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>124600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>82800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>34500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>28700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,131 +1380,138 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
@@ -1480,23 +1520,23 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1512,8 +1552,8 @@
       <c r="Q22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
         <v>800</v>
       </c>
       <c r="F24" s="3">
+        <v>800</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-24900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,47 +2487,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E41" s="3">
         <v>59800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,47 +2609,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E43" s="3">
         <v>48300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>80700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>61300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,47 +2733,50 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E45" s="3">
         <v>59900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>341400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>364200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>356800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>343000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>359100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>361000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2696,47 +2795,50 @@
       <c r="U45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E46" s="3">
         <v>168000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>176800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>173200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>183500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>432300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>465400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>457200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>442200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>417500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>429600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>155900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2755,47 +2857,50 @@
       <c r="U46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E47" s="3">
         <v>20800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>20200</v>
       </c>
       <c r="F47" s="3">
         <v>20200</v>
       </c>
       <c r="G47" s="3">
+        <v>20200</v>
+      </c>
+      <c r="H47" s="3">
         <v>20400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2814,47 +2919,50 @@
       <c r="U47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E48" s="3">
         <v>95600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>84900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>45700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2873,47 +2981,50 @@
       <c r="U48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>992300</v>
+      </c>
+      <c r="E49" s="3">
         <v>999400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1006800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1014600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1021600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>77700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>78200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>79700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>81200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,47 +3167,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,47 +3291,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1327300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1291200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1296400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1296800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1301000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>586500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>608100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>593800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>563400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>520400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>533800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>261100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,47 +3403,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3332,19 +3463,22 @@
       <c r="U57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3353,16 +3487,16 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
+      <c r="L58" s="3">
+        <v>300</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,47 +3525,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E59" s="3">
         <v>146300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>181000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>173300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>162400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>107800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>147800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>129200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>109400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>94000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>85400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3450,47 +3587,50 @@
       <c r="U59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E60" s="3">
         <v>157800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>191100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>182800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>174400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>119400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>157000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>138800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>115700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>86100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>91100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3509,38 +3649,41 @@
       <c r="U60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E61" s="3">
         <v>62900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>33200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3568,46 +3711,49 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E62" s="3">
         <v>34500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1700</v>
       </c>
       <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>11</v>
+      <c r="O62" s="3">
+        <v>1700</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>11</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,47 +3959,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>303200</v>
+      </c>
+      <c r="E66" s="3">
         <v>259300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>255100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>245000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>233400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>170800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>188200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>168700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>138200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>97200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,47 +4293,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-310300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-288800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-266400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-239300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-209600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-203300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-190100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-176200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-161100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-149100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-140100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-125600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,47 +4541,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1024100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1031900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1041200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1051800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1067600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>415800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>419900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>425000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>425200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>426700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>427500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>163900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,47 +4820,48 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>2000</v>
       </c>
       <c r="J83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,47 +5190,50 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>11</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,47 +5278,48 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>8700</v>
+        <v>-4400</v>
       </c>
       <c r="E91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,47 +5462,50 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-274800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>11</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,47 +5796,50 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>31000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>268000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5612,47 +5858,50 @@
       <c r="U100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>11</v>
       </c>
@@ -5671,47 +5920,50 @@
       <c r="U101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E102" s="3">
         <v>20300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-293000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>289200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>11</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>11</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NCNO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,308 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>113700</v>
+      </c>
+      <c r="F8" s="3">
         <v>109200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>105300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>99600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>94200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>75000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>70000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>66500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>62400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>56600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>54200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>48800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>44700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>38500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>37900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>32000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>29800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>26200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>23700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F9" s="3">
         <v>44900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>43200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>41200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>40300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>31300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>27300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>26600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>26300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>24200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>22500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>22600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>18900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>18400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>16900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>14800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>14000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>39500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>12200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>67500</v>
+      </c>
+      <c r="F10" s="3">
         <v>64300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>62100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>58400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>53900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>43700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>42700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>39900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>36100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>32400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>31700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>26200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>25800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>20100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>21000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>17200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>15800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-13300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>11500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F12" s="3">
         <v>32500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>28900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>29200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>28600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>22800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>19500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>18200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>17000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>16900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>15100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>15300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>8300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>5800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,41 +1121,47 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1135,11 +1174,11 @@
       <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,31 +1204,31 @@
         <v>4300</v>
       </c>
       <c r="E15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G15" s="3">
         <v>3900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1300</v>
       </c>
       <c r="K15" s="3">
         <v>1300</v>
       </c>
       <c r="L15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="M15" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
@@ -1191,29 +1236,35 @@
       <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
+      <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>400</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>122300</v>
+      </c>
+      <c r="F17" s="3">
         <v>132500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>123700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>124600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>121400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>104900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>82800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>79700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>77800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>70400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>63000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>64500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>49000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>48500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>44600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>39900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>33300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>34500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>28700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-18400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-25000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-29900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-13200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-15400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-13800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-15700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-7900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-8300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1600</v>
       </c>
       <c r="H20" s="3">
         <v>-1000</v>
       </c>
       <c r="I20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-17600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-27100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-10900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-11400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-12800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,35 +1593,35 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1555,11 +1634,11 @@
       <c r="R22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1567,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-26600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-29400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-31500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-12600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-24900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-21800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-22600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-27400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-30000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-13700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-4900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-27200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-30700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-13600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-4900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1600</v>
       </c>
       <c r="H32" s="3">
         <v>1000</v>
       </c>
       <c r="I32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-27200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-30700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-13600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-14600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-4900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-27200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-30700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-13600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-14600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-4900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,53 +2659,55 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64900</v>
+        <v>98000</v>
       </c>
       <c r="E41" s="3">
-        <v>59800</v>
+        <v>98100</v>
       </c>
       <c r="F41" s="3">
-        <v>73500</v>
+        <v>82000</v>
       </c>
       <c r="G41" s="3">
-        <v>66600</v>
+        <v>106500</v>
       </c>
       <c r="H41" s="3">
-        <v>76900</v>
+        <v>86100</v>
       </c>
       <c r="I41" s="3">
+        <v>78700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K41" s="3">
         <v>51600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>39100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>38900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>34300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>31500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2550,8 +2723,14 @@
       <c r="V41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,53 +2791,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>90600</v>
+      </c>
+      <c r="F43" s="3">
         <v>108900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>48300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>76500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>80700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>82100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>39300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>57200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>61300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>60400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>29400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>34200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>50000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2674,8 +2859,14 @@
       <c r="V43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,53 +2927,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33400</v>
+        <v>21000</v>
       </c>
       <c r="E45" s="3">
-        <v>59900</v>
+        <v>22900</v>
       </c>
       <c r="F45" s="3">
-        <v>26700</v>
+        <v>16300</v>
       </c>
       <c r="G45" s="3">
-        <v>25900</v>
+        <v>13200</v>
       </c>
       <c r="H45" s="3">
-        <v>24500</v>
+        <v>14100</v>
       </c>
       <c r="I45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K45" s="3">
         <v>341400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>364200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>356800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>343000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>359100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>361000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>74400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2798,53 +2995,59 @@
       <c r="V45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>211600</v>
+      </c>
+      <c r="F46" s="3">
         <v>207200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>168000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>176800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>173200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>183500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>432300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>465400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>457200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>442200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>417500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>429600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>155900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2860,53 +3063,59 @@
       <c r="V46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F47" s="3">
         <v>24800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>20800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>20200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>20200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>20400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>11200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>11400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>10300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>10200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2922,53 +3131,59 @@
       <c r="V47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>92900</v>
+      </c>
+      <c r="F48" s="3">
         <v>95000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>95600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>84900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>80300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>73800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>64300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>52100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>45700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>29900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>14600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>14000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2984,53 +3199,59 @@
       <c r="V48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>977700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>984600</v>
+      </c>
+      <c r="F49" s="3">
         <v>992300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>999400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1006800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1014600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1021600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>77700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>78200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>79700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>80300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>80100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>81200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>80900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,53 +3403,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>8100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>900</v>
       </c>
       <c r="N52" s="3">
+        <v>800</v>
+      </c>
+      <c r="O52" s="3">
+        <v>900</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,53 +3539,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1301600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1314500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1327300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1291200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1296400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1296800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1301000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>586500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>608100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>593800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>563400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>520400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>533800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>261100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3356,8 +3607,14 @@
       <c r="V54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,53 +3663,55 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F57" s="3">
         <v>11900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3466,44 +3727,50 @@
       <c r="V57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3516,11 +3783,11 @@
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3528,53 +3795,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>197100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>195600</v>
+      </c>
+      <c r="F59" s="3">
         <v>192300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>146300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>181000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>173300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>162400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>107800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>147800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>129200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>109400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>79600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>94000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>85400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3590,53 +3863,59 @@
       <c r="V59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>223100</v>
+      </c>
+      <c r="F60" s="3">
         <v>205200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>157800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>191100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>182800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>174400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>119400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>157000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>138800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>115700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>86100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>91100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3652,44 +3931,50 @@
       <c r="V60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>53800</v>
+      </c>
+      <c r="F61" s="3">
         <v>84400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>62900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>33100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>33300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>33500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>33200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>15800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3714,53 +3999,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F62" s="3">
         <v>10100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>34500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>27600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>25400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>22700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>15900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,53 +4271,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>273500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>289000</v>
+      </c>
+      <c r="F66" s="3">
         <v>303200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>259300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>255100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>245000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>233400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>170800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>188200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>168700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>138200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>93700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>106300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>97200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4024,8 +4339,14 @@
       <c r="V66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,53 +4637,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-337500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-321700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-310300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-288800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-266400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-239300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-209600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-203300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-190100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-176200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-161100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-149100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-140100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-125600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4358,8 +4705,14 @@
       <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,53 +4909,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1028100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1025400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1024100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1031900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1041200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1051800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1067600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>415800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>419900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>425000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>425200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>426700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>427500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>163900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4606,8 +4977,14 @@
       <c r="V76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-27200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-30700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-13600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-14600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-4900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,44 +5227,44 @@
         <v>9200</v>
       </c>
       <c r="E83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2100</v>
       </c>
       <c r="L83" s="3">
         <v>2000</v>
       </c>
       <c r="M83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,53 +5620,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-21100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-19100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>13300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>23500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>8400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>11</v>
       </c>
@@ -5255,8 +5688,14 @@
       <c r="V89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,53 +5718,55 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,53 +5918,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-274800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>11</v>
       </c>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,53 +6284,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>31000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>268000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5861,53 +6352,59 @@
       <c r="V100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>11</v>
       </c>
@@ -5923,53 +6420,59 @@
       <c r="V101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-24400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>20300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-293000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-18300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-9600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>289200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>11</v>
       </c>
@@ -5983,6 +6486,12 @@
         <v>11</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>11</v>
       </c>
     </row>
